--- a/非受控文档/任务分配/11-24任务.xlsx
+++ b/非受控文档/任务分配/11-24任务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\任务检查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537AE6BE-4646-4F7F-BBED-EC4A9AB73CF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E484E-8FCE-4666-88EA-8044B32E7EC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{380DED2C-1F1A-42B0-9C52-CE2ABC141AA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>所属</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据杨枨老师的意见愿景与范围文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面原型风格制作并于杨枨老师确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,7 +115,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因修改工作延长时间（周三-&gt;周五）</t>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与杨老师确认愿景与范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因工作变动延长时间（周三-&gt;周五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户群分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户群进行分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作初步的界面用来确认风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web设计风格指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式发布的的愿景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改愿景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据杨枨老师的意见修改愿景与范围文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,12 +210,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,22 +537,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FC9939-3BFF-4BA9-96F8-697B0B203B4C}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,11 +571,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -538,45 +600,72 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -584,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -592,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>12</v>
       </c>
